--- a/excel/출고요청서_배송상차관리.xlsx
+++ b/excel/출고요청서_배송상차관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1336221c1362fba5/바탕 화면/지출결의서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mescius-sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{3E9E5F59-AAB4-406B-A5AA-1EFC4F591D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA3A10B-05A4-4010-9FC0-1C6D081ADAD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B010CE-621D-49F6-8346-D4F377217D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{052947E0-88FC-44D9-A2E9-EA9433BFDA19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>주문번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>물류비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지방권배차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총량 피킹 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9135E-1292-42A6-8807-3566111F7230}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -538,10 +546,10 @@
     <col min="5" max="5" width="45.875" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -566,8 +574,11 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -584,6 +595,9 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
